--- a/config_9.14/act_ty_phb_config.xlsx
+++ b/config_9.14/act_ty_phb_config.xlsx
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>16,20,</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>积分数达到1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_grade</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +663,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="18">
         <v>1631577600</v>
@@ -769,7 +769,7 @@
         <v>1632153599</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>17</v>
@@ -778,10 +778,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1">
         <v>100000</v>
@@ -960,7 +960,7 @@
         <v>300000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -977,7 +977,7 @@
         <v>200000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -994,7 +994,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1011,7 +1011,7 @@
         <v>50000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>30000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1045,7 +1045,7 @@
         <v>20000</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1062,7 +1062,7 @@
         <v>10000</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
